--- a/FISHTRADER/ARIMA/Data_FS_04.24/db_br.xlsx
+++ b/FISHTRADER/ARIMA/Data_FS_04.24/db_br.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -29,17 +29,40 @@
   </si>
   <si>
     <t xml:space="preserve">liter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo per capita de carne de frango (kg/hab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo per capita de carne suína (kg/hab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo per capita de ovos (u/hab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo aparente per capita de leite no mercado formal (inspecionado) (l/hab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo per capita de carne bovina (kg/cabeça/ano)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo per capita de pescado(kg/ano)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo per capita de peixe água doce (kg/hab)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -67,13 +90,40 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -129,6 +179,30 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -140,6 +214,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFE2F0D9"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -148,13 +282,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -242,6 +379,322 @@
       </c>
       <c r="C8" s="4" t="n">
         <v>4419242</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="5" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="O14" s="7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>161</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>168</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>182</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>191</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>190</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>192</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>212</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>230</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>251</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>257</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>122.2</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="M17" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L18" s="6" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="M18" s="6" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <f aca="false">SUM(E18:N18)/10</f>
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0" t="n">
+        <f aca="false">E13+E14+E16+E17+E18</f>
+        <v>226.1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">F13+F14+F16+F17+F18</f>
+        <v>228.5</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">G13+G14+G16+G17+G18</f>
+        <v>235.6</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">H13+H14+H16+H17+H18</f>
+        <v>229.4</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">I13+I14+I16+I17+I18</f>
+        <v>228.1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">J13+J14+J16+J17+J18</f>
+        <v>230</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">K13+K14+K16+K17+K18</f>
+        <v>233.7</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">L13+L14+L16+L17+L18</f>
+        <v>230.8</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">M13+M14+M16+M17+M18</f>
+        <v>232.9</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">N13+N14+N16+N17+N18</f>
+        <v>232</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">O13+O14+O16+O17+O18</f>
+        <v>227.81</v>
       </c>
     </row>
   </sheetData>
